--- a/orthofinder_1/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis 20240807.xlsx
+++ b/orthofinder_1/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis 20240807.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/20240708_Orthofinder Results/Results_Jul07/Orthogroups/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/orthofinder_1/Results_Jul07/Orthogroups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53C5B0FE-05EF-41EA-844C-AB394864E3C4}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{357493BE-AC45-44AD-B145-097154A7AAF6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
   </bookViews>
@@ -18135,8 +18135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F490DB99-BC92-4467-91FC-387E3D8437EE}">
   <dimension ref="A1:AT472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="192" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18174,8 +18174,8 @@
     <col min="33" max="33" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="80.21875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="40.88671875" customWidth="1"/>
-    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="44.33203125" customWidth="1"/>
+    <col min="37" max="37" width="49.88671875" customWidth="1"/>
     <col min="38" max="38" width="23" customWidth="1"/>
     <col min="39" max="39" width="26.6640625" customWidth="1"/>
     <col min="40" max="40" width="46.33203125" customWidth="1"/>
